--- a/REVs/REV-14-03-2025.xlsx
+++ b/REVs/REV-14-03-2025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,20 +690,399 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Revisado y Traducido</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0MO14973</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W-7 VERY VEGAN BORW ECO GROOMING KIT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Consumo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No Tiene ES - TRADUCIDO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0TF21608</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RUBELLA MICELLAR TONIC VIT. C 200ML</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Consumo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No Tiene ES - TRADUCIDO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6XS05373</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LACER AFTA GEL 8ML</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ANEXOS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SKU-BETA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MARCA-DESCRIPCION-BETA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRUEBAS EXCEL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PT-DESCRIPCION-BETA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PT-USO-BETA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PT-ADVERTENCIA-BETA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PT+INFO-BETA</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>IT-DESC-BETA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>IT-USO-BETA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>IT-ADVERTENCIA-BETA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>IT+INFO-BETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SKU-BETA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MARCA-DESCRIPCION-BETA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Set &amp; Pack</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>"8411322247219","8411135261075","8414002072927"</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2LT02789</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TECHNIC LOTE BAS4 TRENDSETTER EYESHADOW 24 PCS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LOTE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>"5021769285298","2LT02789"</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0TP02836</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TECHNIC BAS4 TRENDSETTER EYESHADOW 24 PCS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ESTUCHES COLORIDO FLORES</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
